--- a/Redis cli async benchmark.xlsx
+++ b/Redis cli async benchmark.xlsx
@@ -135,10 +135,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -147,12 +147,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.254013538360596</c:v>
+              <c:f>hset!$B$2:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.02953577041626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -179,10 +179,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -191,12 +191,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>11.14740228652954</c:v>
+              <c:f>hset!$C$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.852552890777588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -223,10 +223,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -235,12 +235,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.100159406661987</c:v>
+              <c:f>hset!$D$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.934503078460693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,10 +267,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -279,12 +279,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.022022247314453</c:v>
+              <c:f>hset!$E$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.711744546890259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,10 +311,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -323,12 +323,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.124726295471191</c:v>
+              <c:f>hset!$F$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.292110204696655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,10 +427,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -439,12 +439,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.018100261688232</c:v>
+              <c:f>hget!$B$2:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.881798505783081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,10 +471,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -483,12 +483,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>12.08129692077637</c:v>
+              <c:f>hget!$C$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.89663672447205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,10 +515,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -527,12 +527,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.256784200668335</c:v>
+              <c:f>hget!$D$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.340691328048706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,10 +559,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -571,12 +571,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.257189512252808</c:v>
+              <c:f>hget!$E$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.408909797668457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,10 +603,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -615,12 +615,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.373319149017334</c:v>
+              <c:f>hget!$F$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.896414995193481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,19 +1072,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5.254013538360596</v>
+        <v>5.02953577041626</v>
       </c>
       <c r="C2">
-        <v>11.14740228652954</v>
+        <v>9.852552890777588</v>
       </c>
       <c r="D2">
-        <v>2.100159406661987</v>
+        <v>1.934503078460693</v>
       </c>
       <c r="E2">
-        <v>4.022022247314453</v>
+        <v>3.711744546890259</v>
       </c>
       <c r="F2">
-        <v>4.124726295471191</v>
+        <v>3.292110204696655</v>
       </c>
     </row>
   </sheetData>
@@ -1123,19 +1123,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5.018100261688232</v>
+        <v>4.881798505783081</v>
       </c>
       <c r="C2">
-        <v>12.08129692077637</v>
+        <v>10.89663672447205</v>
       </c>
       <c r="D2">
-        <v>2.256784200668335</v>
+        <v>2.340691328048706</v>
       </c>
       <c r="E2">
-        <v>3.257189512252808</v>
+        <v>3.408909797668457</v>
       </c>
       <c r="F2">
-        <v>4.373319149017334</v>
+        <v>3.896414995193481</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli async benchmark.xlsx
+++ b/Redis cli async benchmark.xlsx
@@ -1,59 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hset" sheetId="1" r:id="rId1"/>
-    <sheet name="hget" sheetId="2" r:id="rId2"/>
+    <sheet name="hset" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hget" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
-    <t>aredis</t>
+    <t xml:space="preserve">aredis</t>
   </si>
   <si>
-    <t>asyncio_redis</t>
+    <t xml:space="preserve">asyncio_redis</t>
   </si>
   <si>
-    <t>cpipe</t>
+    <t xml:space="preserve">cpipe</t>
   </si>
   <si>
-    <t>cpipelib</t>
+    <t xml:space="preserve">cpipelib</t>
   </si>
   <si>
-    <t>credis</t>
+    <t xml:space="preserve">credis</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,55 +102,137 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFE41A1C"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF984EA3"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF377EB8"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF7F00"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF4DAF4A"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -130,20 +249,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E41A1C"/>
+              <a:srgbClr val="e41a1c"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -174,20 +304,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="377EB8"/>
+              <a:srgbClr val="377eb8"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -196,7 +337,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.852552890777588</c:v>
+                  <c:v>9.85255289077759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -218,20 +359,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4DAF4A"/>
+              <a:srgbClr val="4daf4a"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -240,7 +392,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.934503078460693</c:v>
+                  <c:v>1.93450307846069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,20 +414,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="984EA3"/>
+              <a:srgbClr val="984ea3"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -284,7 +447,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.711744546890259</c:v>
+                  <c:v>3.71174454689026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,20 +469,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F00"/>
+              <a:srgbClr val="ff7f00"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -328,84 +502,177 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.292110204696655</c:v>
+                  <c:v>3.29211020469665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:axId val="44234921"/>
+        <c:axId val="76738157"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="44234921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76738157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="76738157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44234921"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -422,20 +689,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E41A1C"/>
+              <a:srgbClr val="e41a1c"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -444,7 +722,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.881798505783081</c:v>
+                  <c:v>4.88179850578308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,20 +744,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="377EB8"/>
+              <a:srgbClr val="377eb8"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -488,7 +777,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.89663672447205</c:v>
+                  <c:v>10.896636724472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,20 +799,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4DAF4A"/>
+              <a:srgbClr val="4daf4a"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -532,7 +832,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.340691328048706</c:v>
+                  <c:v>2.34069132804871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,20 +854,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="984EA3"/>
+              <a:srgbClr val="984ea3"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -576,7 +887,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.408909797668457</c:v>
+                  <c:v>3.40890979766846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,20 +909,31 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F00"/>
+              <a:srgbClr val="ff7f00"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -620,98 +942,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.896414995193481</c:v>
+                  <c:v>3.89641499519348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
+        <c:axId val="26624560"/>
+        <c:axId val="7957863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50020001"/>
+        <c:axId val="26624560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7957863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50020002"/>
+        <c:axId val="7957863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26624560"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5311800" y="190440"/>
+        <a:ext cx="5616360" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -725,8 +1139,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -735,18 +1149,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5311440" y="190440"/>
+        <a:ext cx="5616360" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -759,298 +1173,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,41 +1206,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="0" t="n">
         <v>5.02953577041626</v>
       </c>
-      <c r="C2">
-        <v>9.852552890777588</v>
-      </c>
-      <c r="D2">
-        <v>1.934503078460693</v>
-      </c>
-      <c r="E2">
-        <v>3.711744546890259</v>
-      </c>
-      <c r="F2">
-        <v>3.292110204696655</v>
+      <c r="C2" s="0" t="n">
+        <v>9.85255289077759</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.93450307846069</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3.71174454689026</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3.29211020469665</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,28 +1269,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>4.881798505783081</v>
-      </c>
-      <c r="C2">
-        <v>10.89663672447205</v>
-      </c>
-      <c r="D2">
-        <v>2.340691328048706</v>
-      </c>
-      <c r="E2">
-        <v>3.408909797668457</v>
-      </c>
-      <c r="F2">
-        <v>3.896414995193481</v>
+      <c r="B2" s="0" t="n">
+        <v>4.88179850578308</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10.896636724472</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2.34069132804871</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3.40890979766846</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3.89641499519348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>